--- a/Pruebas/Distance.xlsx
+++ b/Pruebas/Distance.xlsx
@@ -423,16 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>560.496208060615</v>
+        <v>295.8795252133787</v>
       </c>
       <c r="B1" t="n">
-        <v>563.061287363269</v>
+        <v>282.8427124746189</v>
       </c>
       <c r="C1" t="n">
-        <v>560.8761571211425</v>
+        <v>263.8202372573325</v>
       </c>
       <c r="D1" t="n">
-        <v>541.0265402514775</v>
+        <v>261.6661667640196</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Distance.xlsx
+++ b/Pruebas/Distance.xlsx
@@ -423,16 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>295.8795252133787</v>
+        <v>23.53663105724556</v>
       </c>
       <c r="B1" t="n">
-        <v>282.8427124746189</v>
+        <v>25.65242996492234</v>
       </c>
       <c r="C1" t="n">
-        <v>263.8202372573325</v>
+        <v>17.96187313744723</v>
       </c>
       <c r="D1" t="n">
-        <v>261.6661667640196</v>
+        <v>15.74715856017703</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Distance.xlsx
+++ b/Pruebas/Distance.xlsx
@@ -423,16 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>23.53663105724556</v>
+        <v>137.3973444256342</v>
       </c>
       <c r="B1" t="n">
-        <v>25.65242996492234</v>
+        <v>236.6858894797123</v>
       </c>
       <c r="C1" t="n">
-        <v>17.96187313744723</v>
+        <v>90.90575571626506</v>
       </c>
       <c r="D1" t="n">
-        <v>15.74715856017703</v>
+        <v>154.8543670498076</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Distance.xlsx
+++ b/Pruebas/Distance.xlsx
@@ -423,16 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>137.3973444256342</v>
+        <v>1108.622400633982</v>
       </c>
       <c r="B1" t="n">
-        <v>236.6858894797123</v>
+        <v>1113.436723208429</v>
       </c>
       <c r="C1" t="n">
-        <v>90.90575571626506</v>
+        <v>1111.390168833667</v>
       </c>
       <c r="D1" t="n">
-        <v>154.8543670498076</v>
+        <v>1106.120862255083</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Distance.xlsx
+++ b/Pruebas/Distance.xlsx
@@ -423,16 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1108.622400633982</v>
+        <v>1106.797562400413</v>
       </c>
       <c r="B1" t="n">
-        <v>1113.436723208429</v>
+        <v>1100.526505056068</v>
       </c>
       <c r="C1" t="n">
-        <v>1111.390168833667</v>
+        <v>1110.358126237209</v>
       </c>
       <c r="D1" t="n">
-        <v>1106.120862255083</v>
+        <v>1107.404463751527</v>
       </c>
     </row>
   </sheetData>
